--- a/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год_2.xlsx
+++ b/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год_2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="238">
   <si>
     <t>ФИО студента</t>
   </si>
@@ -476,12 +476,6 @@
     <t>ФИО руководителя ВКР</t>
   </si>
   <si>
-    <t>Автоматизированные методы
-определения эмоционального
-состояния человека на основе
-анализа изображения и речи</t>
-  </si>
-  <si>
     <t>Гумиров Виталий Шамилович, директор, ООО  "Аилайн СНГ"</t>
   </si>
   <si>
@@ -489,12 +483,6 @@
   </si>
   <si>
     <t>Пальчунов Дмитрий Евгеньевич</t>
-  </si>
-  <si>
-    <t>Создание прототипа системы
-для управления научными
-проектами в нефтегазовой
-отрасли</t>
   </si>
   <si>
     <t>Чернышов Глеб
@@ -513,23 +501,12 @@
     <t>Яскевич Сергей Владимирович</t>
   </si>
   <si>
-    <t>Разработка рекомендательного
-сервиса для торговли на
-финансовых рынках на основе
-автоматизированного
-извлечения знаний из
-новостных источников</t>
-  </si>
-  <si>
     <t>Галиева Айя Галиевна,
 iOS-разработчик, ООО
 "Тревелтек"</t>
   </si>
   <si>
     <t>Дудкин Федор Анатольевич</t>
-  </si>
-  <si>
-    <t>Разработка интерактивного приложения модели карьера "Борок" с использованием технологии виртуальной реальности</t>
   </si>
   <si>
     <t>Маринин Игорь
@@ -546,13 +523,6 @@
     <t>Яхъяева Гульнара Эркиновна</t>
   </si>
   <si>
-    <t>Разработка рекомендательной
-системы подбора специалистов
-для ветеринарных клиник на
-основе методов машинного
-обучения</t>
-  </si>
-  <si>
     <t>Моргачева Александра
 Игоревна, инженер-
 программист, ООО
@@ -565,34 +535,13 @@
     <t>Трегубов Артём Сергеевич, старший преподаватель кафедры общей информатики ФИТ</t>
   </si>
   <si>
-    <t>Гибридные методы
-моделирования пользователя на
-основе семантических
-технологий и нейронных сетей
-для создания
-интеллектуальных помощников</t>
-  </si>
-  <si>
     <t>66 от 27.03.2023</t>
-  </si>
-  <si>
-    <t>Разработка визуально-
-одометрического SLAM для
-транспортных роботов</t>
   </si>
   <si>
     <t>Ваганова Анна
 Игоревна, iOS-
 разработчик, ООО
 "Группа Развития"</t>
-  </si>
-  <si>
-    <t>Построение онтологии
-нейрофизиологических
-маркеров психиатрических
-расстройств на основе
-автоматического анализа
-научных публикаций</t>
   </si>
   <si>
     <t>Вергунов Евгений
@@ -612,9 +561,6 @@
   </si>
   <si>
     <t>Блощицын Виталий Яковлевич</t>
-  </si>
-  <si>
-    <t>Разработка приложений для консолидации данных управленческого учета</t>
   </si>
   <si>
     <t>Кондырев Дмитрий
@@ -703,12 +649,6 @@
 "Десенчери"</t>
   </si>
   <si>
-    <t>Методы распознавания и
-обработки пользовательских
-намерений для создания
-интеллектуальных помощников</t>
-  </si>
-  <si>
     <t>Яблоков Александр
 Викторович, к.ф.-м.н.,
 с.н.с., ИНГГ СО РАН</t>
@@ -751,9 +691,6 @@
 ЗАО ЦФТ</t>
   </si>
   <si>
-    <t>Яскевич Сергей, к.ф.-м.н., старший научный сотрудник НОЦГПННГУ</t>
-  </si>
-  <si>
     <t>Разработка Web-сервиса для хранения и визуализации сейсморазведочных данных</t>
   </si>
   <si>
@@ -763,9 +700,6 @@
     <t>Перепёлкин Владислав
 Александрович, н.с.,
 ИВМиМГ СО РАН</t>
-  </si>
-  <si>
-    <t>Яскевич Сергей</t>
   </si>
   <si>
     <t>Разработка рекомендательной системы персональных тренировок</t>
@@ -899,6 +833,36 @@
 нейрохирургии
 НМИЦ им. акад. Е.Н.
 Мешалкина</t>
+  </si>
+  <si>
+    <t>Автоматизированные методы определения эмоционального состояния человека на основе анализа изображения и речи</t>
+  </si>
+  <si>
+    <t>Создание прототипа системы для управления научными проектами в нефтегазовой отрасли</t>
+  </si>
+  <si>
+    <t>Разработка интерактивного приложения модели карьера “Борок” с использованием технологии виртуальной реальности</t>
+  </si>
+  <si>
+    <t>Разработка рекомендательного сервиса для торговли на финансовых рынках на основе автоматизированного извлечения знаний из новостных источников</t>
+  </si>
+  <si>
+    <t>Гибридные методы моделирования пользователя на основе семантических технологий и нейронных сетей для создания интеллектуальных помощников</t>
+  </si>
+  <si>
+    <t>Разработка рекомендательной системы подбора специалистов для ветеринарных клиник на основе методов машинного обучения</t>
+  </si>
+  <si>
+    <t>Разработка приложения для консолидации данных управленческого учета</t>
+  </si>
+  <si>
+    <t>Построение онтологии нейрофизиологических маркеров психиатрических расстройств на основе автоматического анализа научных публикаций</t>
+  </si>
+  <si>
+    <t>Разработка визуально-одометрического SLAM для транспортных роботов</t>
+  </si>
+  <si>
+    <t>Методы обработки пользовательских намерений при помощи онтологических гомоморфизмов для создания интеллектуальных помощников</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1345,6 +1309,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1733,10 +1700,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="N2" sqref="N2"/>
+      <selection pane="topRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1797,20 +1764,20 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,20 +1794,20 @@
         <v>30</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,18 +1822,18 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="19" t="s">
         <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1881,20 +1848,20 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>155</v>
+      <c r="F5" s="49" t="s">
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1911,20 +1878,20 @@
         <v>30</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>158</v>
+      <c r="F6" s="49" t="s">
+        <v>230</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,18 +1908,18 @@
         <v>53</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="49" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1969,20 +1936,20 @@
         <v>83</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>162</v>
+      <c r="F8" s="49" t="s">
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,23 +1963,23 @@
         <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>166</v>
+      <c r="F9" s="49" t="s">
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2027,18 +1994,18 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>168</v>
+      <c r="F10" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2055,20 +2022,20 @@
         <v>25</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>170</v>
+      <c r="F11" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2085,18 +2052,18 @@
         <v>67</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="19" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2113,20 +2080,20 @@
         <v>67</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>175</v>
+      <c r="F13" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2143,20 +2110,20 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>178</v>
+      <c r="F14" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2173,18 +2140,18 @@
         <v>25</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="49" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,18 +2166,18 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="49" t="s">
         <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,18 +2194,18 @@
         <v>92</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="49" t="s">
         <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,18 +2220,18 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="49" t="s">
         <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2281,20 +2248,20 @@
       <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>186</v>
+      <c r="F19" s="49" t="s">
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2309,18 +2276,18 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="49" t="s">
         <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2337,18 +2304,18 @@
         <v>10</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="49" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="11" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2365,18 +2332,18 @@
         <v>67</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="49" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,18 +2362,18 @@
       <c r="E23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="49" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2423,18 +2390,18 @@
         <v>67</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="49" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,18 +2418,18 @@
         <v>67</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="49" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,23 +2443,23 @@
         <v>52</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>193</v>
+      <c r="F26" s="49" t="s">
+        <v>237</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2507,18 +2474,18 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="49" t="s">
         <v>108</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2535,18 +2502,18 @@
         <v>30</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="49" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,18 +2530,18 @@
       <c r="E29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="49" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2591,18 +2558,18 @@
         <v>44</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="49" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2619,18 +2586,18 @@
         <v>44</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="49" t="s">
         <v>50</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,20 +2614,20 @@
         <v>10</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>196</v>
+      <c r="F32" s="49" t="s">
+        <v>186</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2677,18 +2644,18 @@
         <v>10</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="49" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2705,20 +2672,20 @@
         <v>53</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>199</v>
+      <c r="F34" s="49" t="s">
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2735,18 +2702,18 @@
         <v>53</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="49" t="s">
         <v>57</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2763,22 +2730,22 @@
         <v>53</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2792,23 +2759,23 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="49" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2819,24 +2786,24 @@
         <v>19208</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>204</v>
+      <c r="F38" s="49" t="s">
+        <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2853,18 +2820,18 @@
         <v>53</v>
       </c>
       <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="49" t="s">
         <v>64</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2881,20 +2848,20 @@
         <v>10</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>208</v>
+      <c r="F40" s="49" t="s">
+        <v>196</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,22 +2876,22 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="49" t="s">
         <v>101</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2941,18 +2908,18 @@
         <v>53</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="49" t="s">
         <v>59</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2969,18 +2936,18 @@
         <v>44</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="49" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,18 +2964,18 @@
         <v>89</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="49" t="s">
         <v>90</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3025,20 +2992,20 @@
         <v>80</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
-        <v>210</v>
+      <c r="F45" s="49" t="s">
+        <v>198</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3055,18 +3022,18 @@
       <c r="E46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3083,20 +3050,20 @@
         <v>53</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
-        <v>212</v>
+      <c r="F47" s="49" t="s">
+        <v>200</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="15" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3113,18 +3080,18 @@
         <v>67</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="49" t="s">
         <v>78</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3139,20 +3106,20 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="49" t="s">
         <v>55</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3169,25 +3136,25 @@
         <v>80</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
-        <v>215</v>
+      <c r="F50" s="49" t="s">
+        <v>203</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B51" s="22">
         <v>19207</v>
@@ -3197,20 +3164,20 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
-        <v>218</v>
+      <c r="F51" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3243,9 +3210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3282,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>144</v>
@@ -3291,7 +3258,7 @@
         <v>114</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3309,17 +3276,17 @@
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="29" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3343,13 +3310,13 @@
         <v>117</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3371,13 +3338,13 @@
         <v>117</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3391,23 +3358,23 @@
         <v>52</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3423,17 +3390,17 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="30" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3455,11 +3422,11 @@
         <v>117</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="29" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3477,19 +3444,19 @@
         <v>127</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3511,13 +3478,13 @@
         <v>117</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3533,19 +3500,19 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="30" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3567,13 +3534,13 @@
         <v>117</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3595,11 +3562,11 @@
         <v>117</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="29" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,13 +3588,13 @@
         <v>117</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3649,13 +3616,13 @@
         <v>117</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3679,13 +3646,13 @@
         <v>117</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>118</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год_2.xlsx
+++ b/tables/masters/2nd_course/software_systems/Cтуденты 2022-2023 уч. год_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" tabRatio="500"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4 курс б." sheetId="3" r:id="rId1"/>
@@ -750,9 +750,6 @@
     <t>ФИО научного руководителя</t>
   </si>
   <si>
-    <t>Разработка децентрализованной биржы на основе блокчейна Solana</t>
-  </si>
-  <si>
     <t>18 от 08.02.2023</t>
   </si>
   <si>
@@ -862,7 +859,13 @@
     <t>Разработка визуально-одометрического SLAM для транспортных роботов</t>
   </si>
   <si>
-    <t>Методы обработки пользовательских намерений при помощи онтологических гомоморфизмов для создания интеллектуальных помощников</t>
+    <t>Методы
+распознавания и обработки пользовательских намерений для создания
+интеллектуальных помощников</t>
+  </si>
+  <si>
+    <t>Разработка
+Telegram-бота, предоставляющего инструменты для торговли на биржах</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1700,10 +1703,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="M36" sqref="M36"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1765,7 +1768,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>14</v>
@@ -1849,7 +1852,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
@@ -1879,7 +1882,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>14</v>
@@ -1937,7 +1940,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
@@ -1967,7 +1970,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>14</v>
@@ -1995,7 +1998,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -2023,7 +2026,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -2081,7 +2084,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>70</v>
@@ -2447,7 +2450,7 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>14</v>
@@ -3202,7 +3205,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3210,9 +3213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3276,13 +3279,13 @@
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="29" t="s">
@@ -3365,10 +3368,10 @@
         <v>123</v>
       </c>
       <c r="G5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>118</v>
@@ -3390,13 +3393,13 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>216</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>217</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="30" t="s">
@@ -3422,11 +3425,11 @@
         <v>117</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3444,13 +3447,13 @@
         <v>127</v>
       </c>
       <c r="F8" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>118</v>
@@ -3478,7 +3481,7 @@
         <v>117</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>118</v>
@@ -3500,10 +3503,10 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>153</v>
@@ -3534,7 +3537,7 @@
         <v>117</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>118</v>
@@ -3562,11 +3565,11 @@
         <v>117</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3588,7 +3591,7 @@
         <v>117</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>118</v>
@@ -3616,7 +3619,7 @@
         <v>117</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>118</v>
@@ -3646,7 +3649,7 @@
         <v>117</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>118</v>
